--- a/Examples/Data/Source/Spreadsheet Templates/Bubble Chart.xlsx
+++ b/Examples/Data/Source/Spreadsheet Templates/Bubble Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OfficeWork\Data\SourceFolder\ExcelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\GroupDocs_Assembly_NET\Examples\Data\Source\Spreadsheet Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -170,7 +170,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Orders Prices by Months&lt;&lt;y [Sum(c=&gt; c.ProductQuantity)]&gt;&gt;&lt;&lt;size [Count()]&gt;&gt;</c:v>
+            <c:v>Orders Prices by Months&lt;&lt;y [Sum(c=&gt; c.Price)]&gt;&gt;&lt;&lt;size [Count()]&gt;&gt;</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -241,11 +241,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-584534992"/>
-        <c:axId val="-584533904"/>
+        <c:axId val="879828080"/>
+        <c:axId val="879836240"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-584534992"/>
+        <c:axId val="879828080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,12 +302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584533904"/>
+        <c:crossAx val="879836240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-584533904"/>
+        <c:axId val="879836240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584534992"/>
+        <c:crossAx val="879828080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1288,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
